--- a/analyses/R01_RegionsAndCNVs/data/regions-and-cnvs_list.xlsx
+++ b/analyses/R01_RegionsAndCNVs/data/regions-and-cnvs_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC50883F-03B5-45C9-B1BE-527C1CD40374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3558843-F3E0-497A-8384-EDA46CA99EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-255" windowWidth="38640" windowHeight="21120" xr2:uid="{C95C6FED-A9B1-47B9-B1E7-71E7CD4356DD}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="regions_cnvs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regions_cnvs!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regions_cnvs!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>number</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>TP53 promoter, include all non coding exons /approxomated from P1/P2 location, e.g. PMID: 29940909)</t>
+  </si>
+  <si>
+    <t>hg38_chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg38_start </t>
+  </si>
+  <si>
+    <t>hg38_stop</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -163,6 +172,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D97DC75-4AFF-4124-947F-DBD8EE548F59}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -490,11 +502,11 @@
   <cols>
     <col min="1" max="5" width="12.7109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="12.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="11" width="12.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +529,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -542,11 +563,20 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>112702501</v>
+      </c>
+      <c r="J2" s="3">
+        <v>112712893</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -568,11 +598,20 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>86755013</v>
+      </c>
+      <c r="J3" s="3">
+        <v>86876083</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -594,11 +633,20 @@
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3">
+        <v>32643603</v>
+      </c>
+      <c r="J4" s="3">
+        <v>33023340</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -620,11 +668,20 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>36992891</v>
+      </c>
+      <c r="J5" s="3">
+        <v>36993703</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -646,11 +703,20 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>36987869</v>
+      </c>
+      <c r="J6" s="3">
+        <v>36998698</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -672,11 +738,20 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>87857596</v>
+      </c>
+      <c r="J7" s="3">
+        <v>87868674</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -698,11 +773,20 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7668194</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7674064</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -724,12 +808,21 @@
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3">
+        <v>31806339</v>
+      </c>
+      <c r="J9" s="3">
+        <v>32435552</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H8" xr:uid="{7D97DC75-4AFF-4124-947F-DBD8EE548F59}"/>
+  <autoFilter ref="A1:K8" xr:uid="{7D97DC75-4AFF-4124-947F-DBD8EE548F59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
